--- a/Doc/卒論まとめのマスタスケジュール.xlsx
+++ b/Doc/卒論まとめのマスタスケジュール.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC95A40F-A32C-424C-BCEA-489426097EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86978EC8-F288-4AAA-926D-724F81D17144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="1995" windowWidth="24600" windowHeight="13230" xr2:uid="{A4596CD3-D154-4C8E-88C3-D83E70343BDE}"/>
+    <workbookView xWindow="8055" yWindow="1155" windowWidth="18600" windowHeight="13710" xr2:uid="{A4596CD3-D154-4C8E-88C3-D83E70343BDE}"/>
   </bookViews>
   <sheets>
     <sheet name="卒論まとめのマスタスケジュール" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -329,6 +329,20 @@
     <rPh sb="46" eb="48">
       <t>サクセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>txrxタグ項目の調査</t>
+    <rPh sb="6" eb="8">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>point、route、grid</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -336,7 +350,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,6 +378,14 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -567,7 +589,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -616,15 +638,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -645,6 +658,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,16 +692,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -691,8 +716,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4400550" y="723900"/>
-          <a:ext cx="1524000" cy="209550"/>
+          <a:off x="3248025" y="409575"/>
+          <a:ext cx="1428750" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -733,16 +758,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -757,8 +782,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4400550" y="971550"/>
-          <a:ext cx="1524000" cy="209550"/>
+          <a:off x="3248025" y="819150"/>
+          <a:ext cx="1428750" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -799,16 +824,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -823,7 +848,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4676774" y="1609725"/>
+          <a:off x="4362449" y="1409700"/>
           <a:ext cx="1905001" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
@@ -865,16 +890,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>47626</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -889,7 +914,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6562725" y="2028825"/>
+          <a:off x="6248400" y="1809750"/>
           <a:ext cx="1304926" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
@@ -931,16 +956,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>219076</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -955,8 +980,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7820025" y="3838576"/>
-          <a:ext cx="1276350" cy="190500"/>
+          <a:off x="7505700" y="3028951"/>
+          <a:ext cx="1276350" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -997,15 +1022,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1021,8 +1046,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8515350" y="4543425"/>
-          <a:ext cx="209550" cy="219076"/>
+          <a:off x="8201025" y="6219825"/>
+          <a:ext cx="209550" cy="180976"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1063,16 +1088,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1087,8 +1112,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8124825" y="4552950"/>
-          <a:ext cx="352425" cy="190500"/>
+          <a:off x="7810500" y="6229350"/>
+          <a:ext cx="352425" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -1129,16 +1154,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1153,8 +1178,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9734550" y="7410450"/>
-          <a:ext cx="942975" cy="190500"/>
+          <a:off x="9420225" y="6629400"/>
+          <a:ext cx="942975" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -1195,15 +1220,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1219,8 +1244,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11029950" y="5505450"/>
-          <a:ext cx="209550" cy="219076"/>
+          <a:off x="10715625" y="7029450"/>
+          <a:ext cx="209550" cy="180976"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1261,16 +1286,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1285,7 +1310,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10353675" y="6877050"/>
+          <a:off x="10039350" y="7038975"/>
           <a:ext cx="638175" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
@@ -1327,16 +1352,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1351,8 +1376,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9067800" y="4343401"/>
-          <a:ext cx="590549" cy="180974"/>
+          <a:off x="8753475" y="4619626"/>
+          <a:ext cx="895350" cy="180974"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -1393,16 +1418,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1417,8 +1442,74 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9391650" y="5191125"/>
-          <a:ext cx="638176" cy="190499"/>
+          <a:off x="9077324" y="5429250"/>
+          <a:ext cx="942975" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矢印: 五方向 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CACA29E4-D7F4-43FC-A103-5CF0262D2415}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8763000" y="4000500"/>
+          <a:ext cx="619125" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -1757,1227 +1848,1320 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C4E2E2-C632-4D9C-A269-AD5BF797283F}">
-  <dimension ref="B1:AC38"/>
+  <dimension ref="A1:AB40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="3" customWidth="1"/>
-    <col min="3" max="3" width="1.875" customWidth="1"/>
-    <col min="4" max="4" width="36.625" customWidth="1"/>
-    <col min="5" max="5" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="29" width="4.125" customWidth="1"/>
-    <col min="30" max="30" width="0.875" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="1.875" customWidth="1"/>
+    <col min="3" max="3" width="36.625" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="28" width="4.125" customWidth="1"/>
+    <col min="29" max="29" width="0.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" ht="8.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B2" s="16" t="s">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="14" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="E1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="16" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="16" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="16" t="s">
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="16" t="s">
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="16" t="s">
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="18"/>
-    </row>
-    <row r="3" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="2" t="s">
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="25"/>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="4"/>
-    </row>
-    <row r="4" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="4"/>
+    </row>
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="12" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="12" t="s">
         <v>9</v>
       </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="7"/>
+    </row>
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="5"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="5"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="6"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="5"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="6"/>
       <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="5"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="6"/>
       <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="5"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="7"/>
-    </row>
-    <row r="5" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="12"/>
+      <c r="AB4" s="7"/>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="5"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="5"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="6"/>
       <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="5"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="6"/>
       <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="5"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="6"/>
       <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="5"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="7"/>
-    </row>
-    <row r="6" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="AB5" s="7"/>
+    </row>
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="5"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="5"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="6"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="5"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="6"/>
       <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="5"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="6"/>
       <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="5"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="7"/>
-    </row>
-    <row r="7" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="12"/>
+      <c r="AB6" s="7"/>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="5"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="5"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="6"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="5"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="6"/>
       <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="5"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="6"/>
       <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="5"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="7"/>
-    </row>
-    <row r="8" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="12"/>
+      <c r="AB7" s="7"/>
+    </row>
+    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="5"/>
+      <c r="B8" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="5"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="5"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="6"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="5"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="6"/>
       <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="5"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="6"/>
       <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="5"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="7"/>
-    </row>
-    <row r="9" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="5"/>
-      <c r="C9" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="AB8" s="7"/>
+    </row>
+    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="5"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="5"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="5"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="6"/>
       <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="5"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="6"/>
       <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="5"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="6"/>
       <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="5"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="7"/>
-    </row>
-    <row r="10" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="5"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="12"/>
+      <c r="AB9" s="7"/>
+    </row>
+    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="5"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="5"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="6"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="5"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="6"/>
       <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="5"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="6"/>
       <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="5"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="7"/>
-    </row>
-    <row r="11" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="5"/>
+      <c r="AB10" s="7"/>
+    </row>
+    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="5"/>
       <c r="C11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="12" t="s">
-        <v>9</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="5"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="5"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="5"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="6"/>
       <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="5"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="6"/>
       <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="5"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="7"/>
-    </row>
-    <row r="12" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="5"/>
-      <c r="D12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="12"/>
+      <c r="AB11" s="7"/>
+    </row>
+    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="5"/>
+      <c r="C12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="5"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="5"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="6"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="5"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="6"/>
       <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="5"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="6"/>
       <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="5"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="7"/>
-    </row>
-    <row r="13" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="5"/>
-      <c r="D13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="12"/>
+      <c r="AB12" s="7"/>
+    </row>
+    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="5"/>
+      <c r="C13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="5"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="5"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="5"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="6"/>
       <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="5"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="6"/>
       <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="5"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="7"/>
-    </row>
-    <row r="14" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="5"/>
-      <c r="D14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="12"/>
+      <c r="AB13" s="7"/>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="5"/>
+      <c r="C14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="5"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="5"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="6"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="5"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="6"/>
       <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="5"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="6"/>
       <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="5"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="7"/>
-    </row>
-    <row r="15" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="5"/>
-      <c r="D15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="12"/>
+      <c r="AB14" s="7"/>
+    </row>
+    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="5"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="5"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="6"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="5"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="6"/>
       <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="5"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="6"/>
       <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="5"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="7"/>
-    </row>
-    <row r="16" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="12"/>
+      <c r="AB15" s="7"/>
+    </row>
+    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="5"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="5"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="6"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="5"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="6"/>
       <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="5"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="6"/>
       <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="5"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="7"/>
-    </row>
-    <row r="17" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="5"/>
+      <c r="AB16" s="7"/>
+    </row>
+    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="24">
-        <v>0.7</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="5"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="5"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="6"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="5"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="6"/>
       <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="5"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="6"/>
       <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="5"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="7"/>
-    </row>
-    <row r="18" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="12"/>
+      <c r="AB17" s="7"/>
+    </row>
+    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="5"/>
+      <c r="C18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="5"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="6"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="5"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="6"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="5"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="6"/>
       <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="5"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="6"/>
       <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="5"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="6"/>
       <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="7"/>
-    </row>
-    <row r="19" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="5"/>
-      <c r="D19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="12"/>
+      <c r="AB18" s="7"/>
+    </row>
+    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="5"/>
+      <c r="C19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="5"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="5"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="6"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="5"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="6"/>
       <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="5"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="6"/>
       <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="5"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="6"/>
       <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="7"/>
-    </row>
-    <row r="20" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="5"/>
-      <c r="D20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="12"/>
+      <c r="AB19" s="7"/>
+    </row>
+    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="5"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="5"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="6"/>
       <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="5"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="6"/>
       <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="5"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="6"/>
       <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="5"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="7"/>
-    </row>
-    <row r="21" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="12"/>
+      <c r="AB20" s="7"/>
+    </row>
+    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="5"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="5"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="6"/>
       <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="5"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="6"/>
       <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="5"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="6"/>
       <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="5"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="7"/>
-    </row>
-    <row r="22" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="5"/>
+      <c r="AB21" s="7"/>
+    </row>
+    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="24">
-        <v>0.5</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="5"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="5"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="6"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="5"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="6"/>
       <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="5"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="6"/>
       <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="5"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="7"/>
-    </row>
-    <row r="23" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="5"/>
+      <c r="AB22" s="7"/>
+    </row>
+    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="5"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="6"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="5"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="6"/>
       <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="5"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="6"/>
       <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="5"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="6"/>
       <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="5"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="6"/>
       <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="7"/>
-    </row>
-    <row r="24" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="12"/>
+      <c r="AB23" s="7"/>
+    </row>
+    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="5"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="6"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="5"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="6"/>
       <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="5"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="6"/>
       <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="5"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="6"/>
       <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="5"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="6"/>
       <c r="AA24" s="6"/>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="7"/>
-    </row>
-    <row r="25" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="12"/>
+      <c r="AB24" s="7"/>
+    </row>
+    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="5"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="6"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="5"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="6"/>
       <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="5"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="6"/>
       <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="5"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="6"/>
       <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="5"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="6"/>
       <c r="AA25" s="6"/>
-      <c r="AB25" s="6"/>
-      <c r="AC25" s="7"/>
-    </row>
-    <row r="26" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="5"/>
+      <c r="AB25" s="7"/>
+    </row>
+    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="24">
-        <v>0</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="5"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="6"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="5"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="6"/>
       <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="5"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="6"/>
       <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="5"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="6"/>
       <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="5"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="6"/>
       <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="7"/>
-    </row>
-    <row r="27" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="5"/>
+      <c r="AB26" s="7"/>
+    </row>
+    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="5"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="5"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="6"/>
       <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="5"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="6"/>
       <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="5"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="6"/>
       <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="5"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="6"/>
       <c r="AA27" s="6"/>
-      <c r="AB27" s="6"/>
-      <c r="AC27" s="7"/>
-    </row>
-    <row r="28" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="12"/>
+      <c r="AB27" s="7"/>
+    </row>
+    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="5"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="6"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="5"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="6"/>
       <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="5"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="6"/>
       <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="5"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="6"/>
       <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="5"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="6"/>
       <c r="AA28" s="6"/>
-      <c r="AB28" s="6"/>
-      <c r="AC28" s="7"/>
-    </row>
-    <row r="29" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="12"/>
+      <c r="AB28" s="7"/>
+    </row>
+    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="5"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="6"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="5"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="6"/>
       <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="5"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="6"/>
       <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="5"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="6"/>
       <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="5"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="6"/>
       <c r="AA29" s="6"/>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="7"/>
-    </row>
-    <row r="30" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="5"/>
-      <c r="C30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="AB29" s="7"/>
+    </row>
+    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="5"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="6"/>
       <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="5"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="6"/>
       <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="5"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="6"/>
       <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="5"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="6"/>
       <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="5"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="6"/>
       <c r="AA30" s="6"/>
-      <c r="AB30" s="6"/>
-      <c r="AC30" s="7"/>
-    </row>
-    <row r="31" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="12"/>
+      <c r="AB30" s="7"/>
+    </row>
+    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="5"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="6"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="5"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="6"/>
       <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="5"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="6"/>
       <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="5"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="6"/>
       <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="5"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="6"/>
       <c r="AA31" s="6"/>
-      <c r="AB31" s="6"/>
-      <c r="AC31" s="7"/>
-    </row>
-    <row r="32" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="5"/>
-      <c r="C32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="24">
-        <v>0</v>
-      </c>
+      <c r="AB31" s="7"/>
+    </row>
+    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="5"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="6"/>
       <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="5"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="6"/>
       <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="5"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="6"/>
       <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="5"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="6"/>
       <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="7"/>
-      <c r="Z32" s="5"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="6"/>
       <c r="AA32" s="6"/>
-      <c r="AB32" s="6"/>
-      <c r="AC32" s="7"/>
-    </row>
-    <row r="33" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="12"/>
+      <c r="AB32" s="7"/>
+    </row>
+    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="5"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="6"/>
       <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="5"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="6"/>
       <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="5"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="6"/>
       <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="5"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="6"/>
       <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="7"/>
-      <c r="Z33" s="5"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="6"/>
       <c r="AA33" s="6"/>
-      <c r="AB33" s="6"/>
-      <c r="AC33" s="7"/>
-    </row>
-    <row r="34" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="5"/>
-      <c r="C34" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="24">
-        <v>0.5</v>
-      </c>
+      <c r="AB33" s="7"/>
+    </row>
+    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="21">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="5"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="6"/>
       <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="5"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="6"/>
       <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="5"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="6"/>
       <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="5"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="6"/>
       <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="5"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="6"/>
       <c r="AA34" s="6"/>
-      <c r="AB34" s="6"/>
-      <c r="AC34" s="7"/>
-    </row>
-    <row r="35" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="10"/>
-      <c r="Z35" s="8"/>
-      <c r="AA35" s="9"/>
-      <c r="AB35" s="9"/>
-      <c r="AC35" s="10"/>
-    </row>
-    <row r="36" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="2" t="s">
+      <c r="AB34" s="7"/>
+    </row>
+    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="7"/>
+    </row>
+    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="21">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="7"/>
+    </row>
+    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="10"/>
+    </row>
+    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-      <c r="AA36" s="3"/>
-      <c r="AB36" s="3"/>
-      <c r="AC36" s="4"/>
-    </row>
-    <row r="37" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="5"/>
-      <c r="C37" s="22" t="s">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="4"/>
+    </row>
+    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="5"/>
+      <c r="B39" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="6"/>
-      <c r="Z37" s="6"/>
-      <c r="AA37" s="6"/>
-      <c r="AB37" s="6"/>
-      <c r="AC37" s="7"/>
-    </row>
-    <row r="38" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="8"/>
-      <c r="C38" s="23" t="s">
+      <c r="C39" s="6"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="7"/>
+    </row>
+    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="8"/>
+      <c r="B40" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="9"/>
-      <c r="AB38" s="9"/>
-      <c r="AC38" s="10"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="9"/>
+      <c r="AB40" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:T1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.12" right="0.11" top="0.41" bottom="0.12" header="0.18" footer="0.12"/>
+  <pageMargins left="0.12" right="0.11" top="0.36" bottom="0.12" header="0.14000000000000001" footer="0.12"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;A</oddHeader>

--- a/Doc/卒論まとめのマスタスケジュール.xlsx
+++ b/Doc/卒論まとめのマスタスケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86978EC8-F288-4AAA-926D-724F81D17144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D34A76B-90A4-4E2B-8BC3-E816233E3DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8055" yWindow="1155" windowWidth="18600" windowHeight="13710" xr2:uid="{A4596CD3-D154-4C8E-88C3-D83E70343BDE}"/>
+    <workbookView xWindow="720" yWindow="495" windowWidth="18825" windowHeight="14970" xr2:uid="{A4596CD3-D154-4C8E-88C3-D83E70343BDE}"/>
   </bookViews>
   <sheets>
     <sheet name="卒論まとめのマスタスケジュール" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -392,7 +392,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,6 +402,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,7 +595,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -659,6 +665,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -668,8 +677,41 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1046,7 +1088,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8201025" y="6219825"/>
+          <a:off x="8439150" y="6219825"/>
           <a:ext cx="209550" cy="180976"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1112,7 +1154,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7810500" y="6229350"/>
+          <a:off x="8048625" y="6229350"/>
           <a:ext cx="352425" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
@@ -1154,16 +1196,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>19048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1178,8 +1220,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9420225" y="6629400"/>
-          <a:ext cx="942975" cy="171450"/>
+          <a:off x="9172576" y="6619873"/>
+          <a:ext cx="419100" cy="190501"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -1220,16 +1262,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1244,7 +1286,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10715625" y="7029450"/>
+          <a:off x="9725025" y="7019925"/>
           <a:ext cx="209550" cy="180976"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1286,14 +1328,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1310,8 +1352,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10039350" y="7038975"/>
-          <a:ext cx="638175" cy="161925"/>
+          <a:off x="9439275" y="7029450"/>
+          <a:ext cx="247650" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -1354,14 +1396,14 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1376,8 +1418,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8753475" y="4619626"/>
-          <a:ext cx="895350" cy="180974"/>
+          <a:off x="8991600" y="4019550"/>
+          <a:ext cx="342900" cy="190499"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -1419,13 +1461,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -1442,8 +1484,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9077324" y="5429250"/>
-          <a:ext cx="942975" cy="180975"/>
+          <a:off x="9144000" y="5429250"/>
+          <a:ext cx="504825" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -1486,13 +1528,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1508,8 +1550,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8763000" y="4000500"/>
-          <a:ext cx="619125" cy="190500"/>
+          <a:off x="9001125" y="4800600"/>
+          <a:ext cx="542925" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -1852,7 +1894,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1866,50 +1908,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="26"/>
       <c r="D1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="23" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="23" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="23" t="s">
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="23" t="s">
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="23" t="s">
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="26"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -1938,10 +1980,10 @@
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
       <c r="X2" s="4"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="4"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="29"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
@@ -1972,10 +2014,10 @@
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
       <c r="X3" s="7"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="7"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="32"/>
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
@@ -2002,10 +2044,10 @@
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
       <c r="X4" s="7"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="7"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="32"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
@@ -2036,10 +2078,10 @@
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
       <c r="X5" s="7"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="7"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="32"/>
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
@@ -2066,10 +2108,10 @@
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
       <c r="X6" s="7"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="7"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="32"/>
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
@@ -2098,10 +2140,10 @@
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
       <c r="X7" s="7"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="7"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="32"/>
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
@@ -2109,7 +2151,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="6"/>
@@ -2132,10 +2174,10 @@
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
       <c r="X8" s="7"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="7"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="32"/>
     </row>
     <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
@@ -2161,10 +2203,10 @@
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
       <c r="X9" s="7"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="7"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="32"/>
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
@@ -2195,10 +2237,10 @@
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="7"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="32"/>
     </row>
     <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
@@ -2226,10 +2268,10 @@
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
       <c r="X11" s="7"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="7"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="32"/>
     </row>
     <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
@@ -2257,10 +2299,10 @@
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
       <c r="X12" s="7"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="7"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="35"/>
     </row>
     <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
@@ -2288,10 +2330,10 @@
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
       <c r="X13" s="7"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="7"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="35"/>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
@@ -2319,10 +2361,10 @@
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="7"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="7"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="35"/>
     </row>
     <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
@@ -2348,10 +2390,10 @@
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
       <c r="X15" s="7"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="7"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="35"/>
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
@@ -2359,8 +2401,8 @@
         <v>26</v>
       </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="21">
-        <v>0.9</v>
+      <c r="D16" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -2382,10 +2424,10 @@
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
       <c r="X16" s="7"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="7"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="35"/>
     </row>
     <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
@@ -2414,10 +2456,10 @@
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
       <c r="X17" s="7"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="7"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="35"/>
     </row>
     <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
@@ -2445,10 +2487,10 @@
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
       <c r="X18" s="7"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="7"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="35"/>
     </row>
     <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
@@ -2476,10 +2518,10 @@
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
       <c r="X19" s="7"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="7"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="35"/>
     </row>
     <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
@@ -2506,18 +2548,19 @@
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
       <c r="X20" s="7"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="7"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="35"/>
     </row>
     <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="21">
-        <v>0.7</v>
+        <v>27</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -2539,16 +2582,16 @@
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
       <c r="X21" s="7"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="7"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
+      <c r="AB21" s="35"/>
     </row>
     <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="6"/>
@@ -2571,15 +2614,17 @@
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
       <c r="X22" s="7"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="7"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="34"/>
+      <c r="AB22" s="35"/>
     </row>
     <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="C23" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="D23" s="12"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -2601,20 +2646,16 @@
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
       <c r="X23" s="7"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="7"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="35"/>
     </row>
     <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
-      <c r="B24" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="21">
-        <v>0.7</v>
-      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -2635,18 +2676,19 @@
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
       <c r="X24" s="7"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="7"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
+      <c r="AB24" s="35"/>
     </row>
     <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="12"/>
+      <c r="B25" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="21">
+        <v>0.8</v>
+      </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -2667,16 +2709,16 @@
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
       <c r="X25" s="7"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="7"/>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="35"/>
     </row>
     <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="6"/>
@@ -2699,10 +2741,10 @@
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
       <c r="X26" s="7"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="7"/>
+      <c r="Y26" s="33"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="35"/>
     </row>
     <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
@@ -2729,10 +2771,10 @@
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
       <c r="X27" s="7"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
-      <c r="AB27" s="7"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="35"/>
     </row>
     <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
@@ -2763,10 +2805,10 @@
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
       <c r="X28" s="7"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="6"/>
-      <c r="AB28" s="7"/>
+      <c r="Y28" s="33"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="35"/>
     </row>
     <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="5"/>
@@ -2795,10 +2837,10 @@
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
       <c r="X29" s="7"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="7"/>
+      <c r="Y29" s="33"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
+      <c r="AB29" s="35"/>
     </row>
     <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="5"/>
@@ -2825,10 +2867,10 @@
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
       <c r="X30" s="7"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="7"/>
+      <c r="Y30" s="33"/>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="34"/>
+      <c r="AB30" s="35"/>
     </row>
     <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
@@ -2857,10 +2899,10 @@
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
       <c r="X31" s="7"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="6"/>
-      <c r="AB31" s="7"/>
+      <c r="Y31" s="33"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="35"/>
     </row>
     <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="5"/>
@@ -2891,10 +2933,10 @@
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
       <c r="X32" s="7"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="6"/>
-      <c r="AB32" s="7"/>
+      <c r="Y32" s="33"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="34"/>
+      <c r="AB32" s="35"/>
     </row>
     <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="5"/>
@@ -2921,10 +2963,10 @@
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
       <c r="X33" s="7"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6"/>
-      <c r="AB33" s="7"/>
+      <c r="Y33" s="33"/>
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="34"/>
+      <c r="AB33" s="35"/>
     </row>
     <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="5"/>
@@ -2955,10 +2997,10 @@
       <c r="V34" s="6"/>
       <c r="W34" s="6"/>
       <c r="X34" s="7"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="6"/>
-      <c r="AA34" s="6"/>
-      <c r="AB34" s="7"/>
+      <c r="Y34" s="33"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="35"/>
     </row>
     <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="5"/>
@@ -2985,10 +3027,10 @@
       <c r="V35" s="6"/>
       <c r="W35" s="6"/>
       <c r="X35" s="7"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="6"/>
-      <c r="AB35" s="7"/>
+      <c r="Y35" s="33"/>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="34"/>
+      <c r="AB35" s="35"/>
     </row>
     <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="5"/>
@@ -3019,10 +3061,10 @@
       <c r="V36" s="6"/>
       <c r="W36" s="6"/>
       <c r="X36" s="7"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="6"/>
-      <c r="AA36" s="6"/>
-      <c r="AB36" s="7"/>
+      <c r="Y36" s="33"/>
+      <c r="Z36" s="34"/>
+      <c r="AA36" s="34"/>
+      <c r="AB36" s="35"/>
     </row>
     <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="8"/>
@@ -3049,10 +3091,10 @@
       <c r="V37" s="9"/>
       <c r="W37" s="9"/>
       <c r="X37" s="10"/>
-      <c r="Y37" s="8"/>
-      <c r="Z37" s="9"/>
-      <c r="AA37" s="9"/>
-      <c r="AB37" s="10"/>
+      <c r="Y37" s="36"/>
+      <c r="Z37" s="37"/>
+      <c r="AA37" s="37"/>
+      <c r="AB37" s="38"/>
     </row>
     <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">

--- a/Doc/卒論まとめのマスタスケジュール.xlsx
+++ b/Doc/卒論まとめのマスタスケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D34A76B-90A4-4E2B-8BC3-E816233E3DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA0DB95-55FC-457D-B86D-DAC04C5E0D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="495" windowWidth="18825" windowHeight="14970" xr2:uid="{A4596CD3-D154-4C8E-88C3-D83E70343BDE}"/>
+    <workbookView xWindow="1815" yWindow="135" windowWidth="19650" windowHeight="14970" xr2:uid="{A4596CD3-D154-4C8E-88C3-D83E70343BDE}"/>
   </bookViews>
   <sheets>
     <sheet name="卒論まとめのマスタスケジュール" sheetId="1" r:id="rId1"/>
@@ -392,7 +392,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,12 +402,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,7 +589,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -676,42 +670,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1196,214 +1154,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19048</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>276226</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="矢印: 五方向 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4466F7D-2082-4720-B5B0-DA479B5C4473}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9172576" y="6619873"/>
-          <a:ext cx="419100" cy="190501"/>
-        </a:xfrm>
-        <a:prstGeom prst="homePlate">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="楕円 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D447354A-5D9A-4819-AE53-61A29204C0D2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9725025" y="7019925"/>
-          <a:ext cx="209550" cy="180976"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="矢印: 五方向 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF8ABE05-8B19-444D-803E-FB2BDAD90EA8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9439275" y="7029450"/>
-          <a:ext cx="247650" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="homePlate">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1418,8 +1178,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8991600" y="4019550"/>
-          <a:ext cx="342900" cy="190499"/>
+          <a:off x="8991600" y="4010026"/>
+          <a:ext cx="1428750" cy="200024"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -1463,13 +1223,13 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1484,8 +1244,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9144000" y="5429250"/>
-          <a:ext cx="504825" cy="180975"/>
+          <a:off x="9144000" y="5400676"/>
+          <a:ext cx="504825" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -1526,23 +1286,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="矢印: 五方向 13">
+        <xdr:cNvPr id="18" name="矢印: 五方向 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CACA29E4-D7F4-43FC-A103-5CF0262D2415}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F905701C-C101-4D85-9CAF-5BEDAA5DA831}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1550,8 +1310,206 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9001125" y="4800600"/>
-          <a:ext cx="542925" cy="190500"/>
+          <a:off x="9763125" y="6610348"/>
+          <a:ext cx="704851" cy="171452"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="楕円 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{147E98A8-FEB0-4997-8029-4A16E317C3CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10668000" y="7019925"/>
+          <a:ext cx="209550" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="矢印: 五方向 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{783F53D5-CA03-435B-964A-3170A6D70D67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10382250" y="7029450"/>
+          <a:ext cx="247650" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="矢印: 五方向 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A015CD0-DBC2-4893-A55F-897E163931C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9496425" y="4791074"/>
+          <a:ext cx="781050" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -1980,10 +1938,10 @@
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
       <c r="X2" s="4"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="29"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="4"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
@@ -2014,10 +1972,10 @@
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
       <c r="X3" s="7"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="32"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="7"/>
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
@@ -2044,10 +2002,10 @@
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
       <c r="X4" s="7"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="32"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="7"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
@@ -2078,10 +2036,10 @@
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
       <c r="X5" s="7"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="32"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="7"/>
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
@@ -2108,10 +2066,10 @@
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
       <c r="X6" s="7"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="32"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="7"/>
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
@@ -2140,10 +2098,10 @@
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
       <c r="X7" s="7"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="32"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="7"/>
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
@@ -2174,10 +2132,10 @@
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
       <c r="X8" s="7"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="32"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="7"/>
     </row>
     <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
@@ -2203,10 +2161,10 @@
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
       <c r="X9" s="7"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="32"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="7"/>
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
@@ -2237,10 +2195,10 @@
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="32"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="7"/>
     </row>
     <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
@@ -2268,10 +2226,10 @@
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
       <c r="X11" s="7"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="32"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="7"/>
     </row>
     <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
@@ -2299,10 +2257,10 @@
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
       <c r="X12" s="7"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="35"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="7"/>
     </row>
     <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
@@ -2330,10 +2288,10 @@
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
       <c r="X13" s="7"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="35"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="7"/>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
@@ -2361,10 +2319,10 @@
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="7"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="35"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="7"/>
     </row>
     <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
@@ -2390,10 +2348,10 @@
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
       <c r="X15" s="7"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="35"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="7"/>
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
@@ -2424,10 +2382,10 @@
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
       <c r="X16" s="7"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="35"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="7"/>
     </row>
     <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
@@ -2456,10 +2414,10 @@
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
       <c r="X17" s="7"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="35"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="7"/>
     </row>
     <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
@@ -2487,10 +2445,10 @@
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
       <c r="X18" s="7"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="35"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="7"/>
     </row>
     <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
@@ -2518,10 +2476,10 @@
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
       <c r="X19" s="7"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="35"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="7"/>
     </row>
     <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
@@ -2548,10 +2506,10 @@
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
       <c r="X20" s="7"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="35"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="7"/>
     </row>
     <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
@@ -2559,8 +2517,8 @@
         <v>27</v>
       </c>
       <c r="C21" s="7"/>
-      <c r="D21" s="12" t="s">
-        <v>9</v>
+      <c r="D21" s="21">
+        <v>0.8</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -2582,10 +2540,10 @@
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
       <c r="X21" s="7"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
-      <c r="AB21" s="35"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="7"/>
     </row>
     <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
@@ -2614,10 +2572,10 @@
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
       <c r="X22" s="7"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="35"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="7"/>
     </row>
     <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
@@ -2646,10 +2604,10 @@
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
       <c r="X23" s="7"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="35"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="7"/>
     </row>
     <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
@@ -2676,10 +2634,10 @@
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
       <c r="X24" s="7"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="35"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="7"/>
     </row>
     <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
@@ -2709,10 +2667,10 @@
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
       <c r="X25" s="7"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="34"/>
-      <c r="AB25" s="35"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="7"/>
     </row>
     <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
@@ -2741,10 +2699,10 @@
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
       <c r="X26" s="7"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="34"/>
-      <c r="AB26" s="35"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="7"/>
     </row>
     <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
@@ -2771,10 +2729,10 @@
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
       <c r="X27" s="7"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="34"/>
-      <c r="AA27" s="34"/>
-      <c r="AB27" s="35"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="7"/>
     </row>
     <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
@@ -2782,8 +2740,8 @@
         <v>32</v>
       </c>
       <c r="C28" s="7"/>
-      <c r="D28" s="21">
-        <v>0.3</v>
+      <c r="D28" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -2805,10 +2763,10 @@
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
       <c r="X28" s="7"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="35"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="7"/>
     </row>
     <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="5"/>
@@ -2837,10 +2795,10 @@
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
       <c r="X29" s="7"/>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="34"/>
-      <c r="AA29" s="34"/>
-      <c r="AB29" s="35"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="7"/>
     </row>
     <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="5"/>
@@ -2867,10 +2825,10 @@
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
       <c r="X30" s="7"/>
-      <c r="Y30" s="33"/>
-      <c r="Z30" s="34"/>
-      <c r="AA30" s="34"/>
-      <c r="AB30" s="35"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="7"/>
     </row>
     <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
@@ -2899,10 +2857,10 @@
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
       <c r="X31" s="7"/>
-      <c r="Y31" s="33"/>
-      <c r="Z31" s="34"/>
-      <c r="AA31" s="34"/>
-      <c r="AB31" s="35"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="7"/>
     </row>
     <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="5"/>
@@ -2933,10 +2891,10 @@
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
       <c r="X32" s="7"/>
-      <c r="Y32" s="33"/>
-      <c r="Z32" s="34"/>
-      <c r="AA32" s="34"/>
-      <c r="AB32" s="35"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="7"/>
     </row>
     <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="5"/>
@@ -2963,10 +2921,10 @@
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
       <c r="X33" s="7"/>
-      <c r="Y33" s="33"/>
-      <c r="Z33" s="34"/>
-      <c r="AA33" s="34"/>
-      <c r="AB33" s="35"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="7"/>
     </row>
     <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="5"/>
@@ -2975,7 +2933,7 @@
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="21">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -2997,10 +2955,10 @@
       <c r="V34" s="6"/>
       <c r="W34" s="6"/>
       <c r="X34" s="7"/>
-      <c r="Y34" s="33"/>
-      <c r="Z34" s="34"/>
-      <c r="AA34" s="34"/>
-      <c r="AB34" s="35"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="7"/>
     </row>
     <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="5"/>
@@ -3027,10 +2985,10 @@
       <c r="V35" s="6"/>
       <c r="W35" s="6"/>
       <c r="X35" s="7"/>
-      <c r="Y35" s="33"/>
-      <c r="Z35" s="34"/>
-      <c r="AA35" s="34"/>
-      <c r="AB35" s="35"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="7"/>
     </row>
     <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="5"/>
@@ -3039,7 +2997,7 @@
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="21">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -3061,10 +3019,10 @@
       <c r="V36" s="6"/>
       <c r="W36" s="6"/>
       <c r="X36" s="7"/>
-      <c r="Y36" s="33"/>
-      <c r="Z36" s="34"/>
-      <c r="AA36" s="34"/>
-      <c r="AB36" s="35"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="7"/>
     </row>
     <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="8"/>
@@ -3091,10 +3049,10 @@
       <c r="V37" s="9"/>
       <c r="W37" s="9"/>
       <c r="X37" s="10"/>
-      <c r="Y37" s="36"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="38"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="10"/>
     </row>
     <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">

--- a/Doc/卒論まとめのマスタスケジュール.xlsx
+++ b/Doc/卒論まとめのマスタスケジュール.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA0DB95-55FC-457D-B86D-DAC04C5E0D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BBF84C-AD6C-44A4-B8BA-D29936AACCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="135" windowWidth="19650" windowHeight="14970" xr2:uid="{A4596CD3-D154-4C8E-88C3-D83E70343BDE}"/>
+    <workbookView xWindow="3360" yWindow="210" windowWidth="22980" windowHeight="14970" xr2:uid="{A4596CD3-D154-4C8E-88C3-D83E70343BDE}"/>
   </bookViews>
   <sheets>
     <sheet name="卒論まとめのマスタスケジュール" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -343,6 +343,30 @@
   </si>
   <si>
     <t>point、route、grid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリプトファイル作成</t>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gnuplotのプロット用ファイル作成</t>
+    <rPh sb="12" eb="13">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未着手</t>
+    <rPh sb="0" eb="3">
+      <t>ミチャクシュ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -406,7 +430,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -570,26 +594,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -627,9 +638,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1024,13 +1032,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1046,7 +1054,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8439150" y="6219825"/>
+          <a:off x="8439150" y="6934200"/>
           <a:ext cx="209550" cy="180976"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1090,13 +1098,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1112,7 +1120,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8048625" y="6229350"/>
+          <a:off x="8048625" y="6943725"/>
           <a:ext cx="352425" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
@@ -1154,15 +1162,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1178,7 +1186,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8991600" y="4010026"/>
+          <a:off x="9020175" y="4610101"/>
           <a:ext cx="1428750" cy="200024"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
@@ -1222,13 +1230,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1244,7 +1252,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9144000" y="5400676"/>
+          <a:off x="9144000" y="6000751"/>
           <a:ext cx="504825" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
@@ -1288,14 +1296,14 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>9523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1310,8 +1318,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9763125" y="6610348"/>
-          <a:ext cx="704851" cy="171452"/>
+          <a:off x="9763125" y="7210423"/>
+          <a:ext cx="800100" cy="190502"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -1354,14 +1362,14 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1376,8 +1384,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10668000" y="7019925"/>
-          <a:ext cx="209550" cy="180976"/>
+          <a:off x="10668000" y="7610475"/>
+          <a:ext cx="209550" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1420,14 +1428,14 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1442,7 +1450,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10382250" y="7029450"/>
+          <a:off x="10382250" y="7610475"/>
           <a:ext cx="247650" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
@@ -1486,13 +1494,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1508,8 +1516,74 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9496425" y="4791074"/>
+          <a:off x="9496425" y="5391149"/>
           <a:ext cx="781050" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="矢印: 五方向 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24CA6796-F379-41FF-B2B5-32503A7D9F2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10144124" y="6000751"/>
+          <a:ext cx="428625" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -1848,7 +1922,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C4E2E2-C632-4D9C-A269-AD5BF797283F}">
-  <dimension ref="A1:AB40"/>
+  <dimension ref="A1:AB42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
@@ -1866,50 +1940,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="24" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="24" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="24" t="s">
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="24" t="s">
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="24" t="s">
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="26"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="25"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -1977,7 +2051,7 @@
       <c r="AA3" s="6"/>
       <c r="AB3" s="7"/>
     </row>
-    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
@@ -2041,7 +2115,7 @@
       <c r="AA5" s="6"/>
       <c r="AB5" s="7"/>
     </row>
-    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
@@ -2105,11 +2179,11 @@
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="22" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="6"/>
@@ -2137,9 +2211,9 @@
       <c r="AA8" s="6"/>
       <c r="AB8" s="7"/>
     </row>
-    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
-      <c r="C9" s="15"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="12"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -2324,7 +2398,7 @@
       <c r="AA14" s="6"/>
       <c r="AB14" s="7"/>
     </row>
-    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="12"/>
@@ -2481,7 +2555,7 @@
       <c r="AA19" s="6"/>
       <c r="AB19" s="7"/>
     </row>
-    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -2514,11 +2588,11 @@
     <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C21" s="7"/>
-      <c r="D21" s="21">
-        <v>0.8</v>
+      <c r="D21" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -2549,7 +2623,7 @@
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="6"/>
@@ -2577,12 +2651,10 @@
       <c r="AA22" s="6"/>
       <c r="AB22" s="7"/>
     </row>
-    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="C23" s="6"/>
       <c r="D23" s="12"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -2611,9 +2683,13 @@
     </row>
     <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="12"/>
+      <c r="B24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -2641,12 +2717,11 @@
     </row>
     <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
-      <c r="B25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="21">
-        <v>0.8</v>
-      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="12"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -2676,7 +2751,7 @@
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="6"/>
@@ -2704,7 +2779,7 @@
       <c r="AA26" s="6"/>
       <c r="AB26" s="7"/>
     </row>
-    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -2737,9 +2812,8 @@
     <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="7"/>
+        <v>35</v>
+      </c>
       <c r="D28" s="12" t="s">
         <v>9</v>
       </c>
@@ -2772,7 +2846,7 @@
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="6"/>
@@ -2800,7 +2874,7 @@
       <c r="AA29" s="6"/>
       <c r="AB29" s="7"/>
     </row>
-    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -2831,12 +2905,14 @@
       <c r="AB30" s="7"/>
     </row>
     <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="12"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -2864,13 +2940,11 @@
     </row>
     <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="5"/>
-      <c r="B32" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="12"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -2896,10 +2970,10 @@
       <c r="AA32" s="6"/>
       <c r="AB32" s="7"/>
     </row>
-    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="12"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -2927,14 +3001,12 @@
       <c r="AB33" s="7"/>
     </row>
     <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="6"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="21">
-        <v>0.3</v>
-      </c>
+      <c r="D34" s="12"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -2962,9 +3034,13 @@
     </row>
     <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
+      <c r="B35" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="C35" s="7"/>
-      <c r="D35" s="12"/>
+      <c r="D35" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -2990,15 +3066,11 @@
       <c r="AA35" s="6"/>
       <c r="AB35" s="7"/>
     </row>
-    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="5"/>
-      <c r="B36" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="B36" s="6"/>
       <c r="C36" s="7"/>
-      <c r="D36" s="21">
-        <v>0.3</v>
-      </c>
+      <c r="D36" s="12"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -3025,130 +3097,198 @@
       <c r="AB36" s="7"/>
     </row>
     <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="10"/>
-      <c r="Y37" s="8"/>
-      <c r="Z37" s="9"/>
-      <c r="AA37" s="9"/>
-      <c r="AB37" s="10"/>
-    </row>
-    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
-      <c r="AA38" s="3"/>
-      <c r="AB38" s="4"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="7"/>
+    </row>
+    <row r="38" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="7"/>
     </row>
     <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="5"/>
-      <c r="B39" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="17"/>
+      <c r="B39" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="20">
+        <v>0.5</v>
+      </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="5"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="5"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="5"/>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="5"/>
       <c r="V39" s="6"/>
       <c r="W39" s="6"/>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="6"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="5"/>
       <c r="Z39" s="6"/>
       <c r="AA39" s="6"/>
       <c r="AB39" s="7"/>
     </row>
     <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="8"/>
-      <c r="B40" s="20" t="s">
+      <c r="A40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="4"/>
+    </row>
+    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="5"/>
+      <c r="B41" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="7"/>
+    </row>
+    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="8"/>
+      <c r="B42" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="9"/>
-      <c r="Z40" s="9"/>
-      <c r="AA40" s="9"/>
-      <c r="AB40" s="10"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="9"/>
+      <c r="AA42" s="9"/>
+      <c r="AB42" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3161,7 +3301,7 @@
     <mergeCell ref="Q1:T1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.12" right="0.11" top="0.36" bottom="0.12" header="0.14000000000000001" footer="0.12"/>
+  <pageMargins left="0.12" right="0.11" top="0.38" bottom="0.12" header="0.11" footer="0.12"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;A</oddHeader>
